--- a/_ValueSet_binding.xlsx
+++ b/_ValueSet_binding.xlsx
@@ -1355,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,99 +1386,86 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.extension:participantR5.extension:function</t>
+          <t>FamilyMemberHistory.status</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/participation-role-type</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.status</t>
+          <t>FamilyMemberHistory.dataAbsentReason</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
+          <t>extensible</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.dataAbsentReason</t>
+          <t>FamilyMemberHistory.relationship</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>extensible</t>
+          <t>extensible
+https://fhir.hl7.org.uk/ValueSet/UKCore-PersonRelationshipType</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.relationship</t>
+          <t>FamilyMemberHistory.sex</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>extensible
-https://fhir.hl7.org.uk/ValueSet/UKCore-PersonRelationshipType</t>
+http://hl7.org/fhir/ValueSet/administrative-gender</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.sex</t>
+          <t>FamilyMemberHistory.reasonCode</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/administrative-gender</t>
+          <t>example
+http://hl7.org/fhir/ValueSet/clinical-findings</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.reasonCode</t>
+          <t>FamilyMemberHistory.condition.code</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/clinical-findings</t>
+          <t>preferred</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FamilyMemberHistory.condition.code</t>
+          <t>FamilyMemberHistory.condition.outcome</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>preferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>FamilyMemberHistory.condition.outcome</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>preferred</t>
         </is>
@@ -3828,7 +3815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC57"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6721,407 +6708,397 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Observation.extension:triggeredByR5.extension:type</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+          <t>Observation.interpretation</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-triggeredbytype</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-triggeredbytype</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-triggeredbytype</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/observation-interpretation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Observation.interpretation</t>
+          <t>Observation.language</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Observation.language</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
+          <t>Observation.meta.security</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/security-labels</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Observation.meta.security</t>
+          <t>Observation.meta.tag</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -7134,8 +7111,8 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/security-labels</t>
+          <t>example
+http://hl7.org/fhir/ValueSet/common-tags</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -7161,754 +7138,769 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Observation.meta.tag</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>Observation.method</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/common-tags</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>example
+http://hl7.org/fhir/ValueSet/observation-methods</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>preferred</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>preferred</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>preferred</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Observation.method</t>
+          <t>Observation.referenceRange.appliesTo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
           <t>example
-http://hl7.org/fhir/ValueSet/observation-methods</t>
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>example
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>example
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>example
+http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Observation.referenceRange.appliesTo</t>
+          <t>Observation.referenceRange.type</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Observation.referenceRange.type</t>
+          <t>Observation.status</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Observation.status</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
+          <t>Observation.valueCodeableConcept</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/us/core/ValueSet/us-core-observation-smoking-status-status</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
+          <t>preferred
+http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-status</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+          <t>extensible
+http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-intent</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
+          <t>extensible
+http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-        </is>
-      </c>
+          <t>extensible
+http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Observation.valueCodeableConcept</t>
+          <t>Observation.valueQuantity.code</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-status</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -7922,30 +7914,30 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-intent</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>extensible
-http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodyweight|4.0.1</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodytemp|4.0.1</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>extensible
-http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
-        </is>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
@@ -7953,49 +7945,94 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Observation.valueQuantity.code</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>Observation.value[x]</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodyweight|4.0.1</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodytemp|4.0.1</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -8008,99 +8045,59 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Observation.value[x]</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+          <t>Observation.value[x]:valueCodeableConcept</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>preferred
+http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-status</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>extensible
+http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-intent</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>extensible
+http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>extensible
+http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
+        </is>
+      </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
@@ -8108,59 +8105,94 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Observation.value[x]:valueCodeableConcept</t>
+          <t>Observation.value[x]:valueQuantity</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-status</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>extensible
-http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.3</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>required
+http://terminology.hl7.org/ValueSet/v3-UnitsOfMeasureCaseSensitive</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/us/core/ValueSet/us-core-pregnancy-intent</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>extensible
-http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7901</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>extensible
-http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.11</t>
-        </is>
-      </c>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
@@ -8168,89 +8200,49 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Observation.value[x]:valueQuantity</t>
+          <t>Observation.value[x]:valueQuantity.code</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>required
-http://terminology.hl7.org/ValueSet/v3-UnitsOfMeasureCaseSensitive</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
-        </is>
-      </c>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodyweight|4.0.1</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/ucum-bodytemp|4.0.1</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -8263,7 +8255,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Observation.value[x]:valueQuantity.code</t>
+          <t>Observation.value[x]:valueQuantity.comparator</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -8271,41 +8263,76 @@
       <c r="D56" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodyweight|4.0.1</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr"/>
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodylength|4.0.1</t>
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/ucum-bodytemp|4.0.1</t>
+http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -8314,96 +8341,6 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueQuantity.comparator</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8658,7 +8595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8733,299 +8670,271 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Patient.communication.extension:proficiency.extension:level.value[x]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Patient.communication.language</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/us/core/ValueSet/simple-language</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>preferred
-http://terminology.hl7.org/ValueSet/v3-LanguageAbilityProficiency</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/all-languages</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Patient.communication.extension:proficiency.extension:type.value[x]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Patient.contact.gender</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>preferred
-http://terminology.hl7.org/ValueSet/v3-LanguageAbilityMode</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Patient.communication.language</t>
+          <t>Patient.contact.relationship</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>extensible
-http://hl7.org/fhir/us/core/ValueSet/simple-language</t>
+http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/all-languages</t>
+          <t>extensible
+https://fhir.hl7.org.uk/ValueSet/UKCore-PersonRelationshipType</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Patient.contact.gender</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
-        </is>
-      </c>
+          <t>Patient.contact.telecom.system</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Patient.contact.relationship</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
-        </is>
-      </c>
+          <t>Patient.contact.telecom.use</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>extensible
-https://fhir.hl7.org.uk/ValueSet/UKCore-PersonRelationshipType</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Patient.contact.telecom.system</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Patient.gender</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/administrative-gender</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Patient.contact.telecom.use</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-        </is>
-      </c>
+          <t>Patient.identifier.type</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/identifier-type</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Patient.gender</t>
+          <t>Patient.identifier.use</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/administrative-gender</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
-        </is>
-      </c>
+http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier.type</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+          <t>Patient.identifier:nhsNumber.type</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>extensible
 http://hl7.org/fhir/ValueSet/identifier-type</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier.use</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+          <t>Patient.identifier:nhsNumber.use</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>required
 http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier:nhsNumber.type</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>Patient.language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/identifier-type</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier:nhsNumber.use</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>Patient.link.type</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Patient.language</t>
+          <t>Patient.maritalStatus</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/marital-status</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
+          <t>extensible
+https://fhir.hl7.org.uk/ValueSet/UKCore-PersonMaritalStatusCode</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Patient.link.type</t>
+          <t>Patient.name.use</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Patient.maritalStatus</t>
+          <t>Patient.telecom.system</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/marital-status</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/contact-point-system</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>extensible
-https://fhir.hl7.org.uk/ValueSet/UKCore-PersonMaritalStatusCode</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Patient.name.use</t>
+          <t>Patient.telecom.use</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>required
-http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+http://hl7.org/fhir/ValueSet/contact-point-use</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Patient.telecom.system</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/contact-point-system</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Patient.telecom.use</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/contact-point-use</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>required
 http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -11969,7 +11878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12141,65 +12050,60 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DiagnosticReport.extension:supportingInfoR5.extension:type</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>DiagnosticReport.language</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>example
-http://terminology.hl7.org/ValueSet/v2-0936</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>example
-http://terminology.hl7.org/ValueSet/v2-0936</t>
+          <t>preferred
+http://hl7.org/fhir/ValueSet/languages</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DiagnosticReport.language</t>
+          <t>DiagnosticReport.meta.security</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>preferred
-http://hl7.org/fhir/ValueSet/languages</t>
-        </is>
-      </c>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/security-labels</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DiagnosticReport.meta.security</t>
+          <t>DiagnosticReport.meta.tag</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/security-labels</t>
+          <t>example
+http://hl7.org/fhir/ValueSet/common-tags</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -12209,23 +12113,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DiagnosticReport.meta.tag</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>example
-http://hl7.org/fhir/ValueSet/common-tags</t>
-        </is>
-      </c>
+          <t>DiagnosticReport.performer.type</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/resource-types</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>extensible
+http://hl7.org/fhir/ValueSet/resource-types</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DiagnosticReport.performer.type</t>
+          <t>DiagnosticReport.resultsInterpreter.type</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -12246,49 +12155,28 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DiagnosticReport.resultsInterpreter.type</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>DiagnosticReport.status</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>required
+http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/resource-types</t>
+          <t>required
+http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>extensible
-http://hl7.org/fhir/ValueSet/resource-types</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>DiagnosticReport.status</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>required
-http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>required
 http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
